--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JL\AplicativoEquipes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75F4809-2D2A-41C3-9083-83EEC0E07EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B697CC1D-3EEC-48A4-A533-A762FAF05BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9AA86512-30D8-4906-A71C-873C92D6CB10}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$193</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="311">
   <si>
     <t>Nome da Equipe</t>
   </si>
@@ -47,9 +47,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>URL da Página de Atletas</t>
-  </si>
-  <si>
     <t>CAMISA 10 F.C.</t>
   </si>
   <si>
@@ -885,6 +882,96 @@
   </si>
   <si>
     <t>https://eventos.admfutsal.com.br/evento/751/equipe/9836</t>
+  </si>
+  <si>
+    <t>ASSOCIAÇÃO BRASILEIRA CULTURAL E DESPORTIVA GUARULHENSE</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11234</t>
+  </si>
+  <si>
+    <t>URLdaPáginadeAtletas</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11235</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11236</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11237</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11238</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11239</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11240</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11241</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11242</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11243</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11244</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11245</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11246</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11247</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11248</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11249</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11250</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11251</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11252</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11253</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11254</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11255</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11256</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11257</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11258</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11259</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11260</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11261</t>
   </si>
 </sst>
 </file>
@@ -1284,11 +1371,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53345C70-0A1D-4C23-8555-6F45614E97A2}">
-  <dimension ref="A1:F165"/>
+  <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G154" sqref="G154"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="107" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1302,13 +1387,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1317,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1325,19 +1410,19 @@
         <v>2025</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2">
         <v>11791</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1345,19 +1430,19 @@
         <v>2025</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2">
         <v>11751</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1365,19 +1450,19 @@
         <v>2025</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2">
         <v>11723</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1385,19 +1470,19 @@
         <v>2025</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2">
         <v>11703</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1405,19 +1490,19 @@
         <v>2025</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2">
         <v>11747</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1425,19 +1510,19 @@
         <v>2025</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2">
         <v>11715</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1445,19 +1530,19 @@
         <v>2025</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2">
         <v>11711</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1465,19 +1550,19 @@
         <v>2025</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2">
         <v>11767</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1485,19 +1570,19 @@
         <v>2025</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2">
         <v>11686</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1505,19 +1590,19 @@
         <v>2025</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2">
         <v>11779</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1525,19 +1610,19 @@
         <v>2025</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2">
         <v>11743</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1545,19 +1630,19 @@
         <v>2025</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2">
         <v>11719</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1565,19 +1650,19 @@
         <v>2025</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2">
         <v>11775</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1585,19 +1670,19 @@
         <v>2025</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2">
         <v>11727</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1605,19 +1690,19 @@
         <v>2025</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2">
         <v>11759</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1625,19 +1710,19 @@
         <v>2025</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2">
         <v>11783</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1645,19 +1730,19 @@
         <v>2025</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="2">
         <v>11787</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1665,19 +1750,19 @@
         <v>2025</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2">
         <v>11735</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1685,19 +1770,19 @@
         <v>2025</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2">
         <v>11755</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1705,19 +1790,19 @@
         <v>2025</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2">
         <v>11707</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1725,19 +1810,19 @@
         <v>2025</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2">
         <v>11731</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1745,19 +1830,19 @@
         <v>2025</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2">
         <v>11739</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1765,19 +1850,19 @@
         <v>2025</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2">
         <v>11771</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1785,19 +1870,19 @@
         <v>2025</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2">
         <v>11763</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1805,19 +1890,19 @@
         <v>2025</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E26" s="2">
         <v>11992</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1825,19 +1910,19 @@
         <v>2025</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" s="2">
         <v>11891</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1845,19 +1930,19 @@
         <v>2025</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" s="2">
         <v>11976</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1865,19 +1950,19 @@
         <v>2025</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29" s="2">
         <v>12000</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1885,19 +1970,19 @@
         <v>2025</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" s="2">
         <v>11695</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1905,19 +1990,19 @@
         <v>2025</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" s="2">
         <v>11803</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1925,19 +2010,19 @@
         <v>2025</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E32" s="2">
         <v>11811</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1945,19 +2030,19 @@
         <v>2025</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" s="2">
         <v>11699</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1965,19 +2050,19 @@
         <v>2025</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E34" s="2">
         <v>11944</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1985,19 +2070,19 @@
         <v>2025</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2">
         <v>11996</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2005,19 +2090,19 @@
         <v>2025</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2">
         <v>11964</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2025,19 +2110,19 @@
         <v>2025</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2">
         <v>11623</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2045,19 +2130,19 @@
         <v>2025</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2">
         <v>11932</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2065,19 +2150,19 @@
         <v>2025</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E39" s="2">
         <v>11952</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2085,19 +2170,19 @@
         <v>2025</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2">
         <v>11908</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2105,19 +2190,19 @@
         <v>2025</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E41" s="2">
         <v>11948</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2125,19 +2210,19 @@
         <v>2025</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E42" s="2">
         <v>12012</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2145,19 +2230,19 @@
         <v>2025</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="2">
         <v>11984</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2165,19 +2250,19 @@
         <v>2025</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E44" s="2">
         <v>11817</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2185,19 +2270,19 @@
         <v>2025</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E45" s="2">
         <v>11980</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2205,19 +2290,19 @@
         <v>2025</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E46" s="2">
         <v>11799</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2225,19 +2310,19 @@
         <v>2025</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2">
         <v>12020</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2245,19 +2330,19 @@
         <v>2025</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E48" s="2">
         <v>12032</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2265,19 +2350,19 @@
         <v>2025</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E49" s="2">
         <v>11956</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2285,19 +2370,19 @@
         <v>2025</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E50" s="2">
         <v>11940</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2305,19 +2390,19 @@
         <v>2025</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E51" s="2">
         <v>12028</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2325,19 +2410,19 @@
         <v>2025</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E52" s="2">
         <v>11988</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2345,19 +2430,19 @@
         <v>2025</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E53" s="2">
         <v>11904</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2365,19 +2450,19 @@
         <v>2025</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E54" s="2">
         <v>11855</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2385,19 +2470,19 @@
         <v>2025</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E55" s="2">
         <v>12004</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2405,19 +2490,19 @@
         <v>2025</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E56" s="2">
         <v>11871</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2425,19 +2510,19 @@
         <v>2025</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E57" s="2">
         <v>11662</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2445,19 +2530,19 @@
         <v>2025</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E58" s="2">
         <v>11960</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2465,19 +2550,19 @@
         <v>2025</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E59" s="2">
         <v>11912</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2485,19 +2570,19 @@
         <v>2025</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E60" s="2">
         <v>12024</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2505,19 +2590,19 @@
         <v>2025</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E61" s="2">
         <v>11795</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2525,19 +2610,19 @@
         <v>2025</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E62" s="2">
         <v>11879</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2545,19 +2630,19 @@
         <v>2025</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E63" s="2">
         <v>11827</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2565,19 +2650,19 @@
         <v>2025</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E64" s="2">
         <v>11847</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2585,19 +2670,19 @@
         <v>2025</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E65" s="2">
         <v>11839</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2605,19 +2690,19 @@
         <v>2025</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E66" s="2">
         <v>11936</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2625,19 +2710,19 @@
         <v>2025</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E67" s="2">
         <v>11928</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2645,19 +2730,19 @@
         <v>2025</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E68" s="2">
         <v>12016</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2665,19 +2750,19 @@
         <v>2025</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E69" s="2">
         <v>11863</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2685,19 +2770,19 @@
         <v>2024</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E70" s="2">
         <v>11080</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2705,19 +2790,19 @@
         <v>2024</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E71" s="2">
         <v>11096</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2725,19 +2810,19 @@
         <v>2024</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E72" s="2">
         <v>11124</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2745,19 +2830,19 @@
         <v>2024</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E73" s="2">
         <v>11084</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2765,19 +2850,19 @@
         <v>2024</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E74" s="2">
         <v>11116</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2785,19 +2870,19 @@
         <v>2024</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E75" s="2">
         <v>11108</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2805,19 +2890,19 @@
         <v>2024</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E76" s="2">
         <v>11048</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2825,19 +2910,19 @@
         <v>2024</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E77" s="2">
         <v>11092</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2845,19 +2930,19 @@
         <v>2024</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2">
         <v>11064</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2865,19 +2950,19 @@
         <v>2024</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E79" s="2">
         <v>11104</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2885,979 +2970,1008 @@
         <v>2024</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E80" s="2">
         <v>11100</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>2024</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E81" s="2">
         <v>11036</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>2024</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E82" s="2">
         <v>11088</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>2024</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E83" s="2">
         <v>10730</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>2024</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E84" s="2">
         <v>11044</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>2024</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E85" s="2">
         <v>11278</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>2024</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E86" s="2">
         <v>11060</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>2024</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E87" s="2">
         <v>11056</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>2024</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E88" s="2">
         <v>11052</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>2024</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E89" s="2">
         <v>11112</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>2024</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E90" s="2">
         <v>11068</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>2024</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E91" s="2">
         <v>11032</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>2024</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E92" s="2">
         <v>11072</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>2024</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E93" s="2">
         <v>11076</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>185</v>
+        <v>35</v>
       </c>
       <c r="E94" s="2">
-        <v>10419</v>
+        <v>11234</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="E95" s="2">
-        <v>10573</v>
+        <v>11235</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="E96" s="2">
-        <v>10373</v>
+        <v>11236</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="E97" s="2">
-        <v>10427</v>
+        <v>11237</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E98" s="2">
-        <v>10473</v>
+        <v>11238</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="E99" s="2">
-        <v>10513</v>
+        <v>11239</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E100" s="2">
-        <v>10509</v>
+        <v>11240</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E101" s="2">
-        <v>10481</v>
+        <v>11241</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="E102" s="2">
-        <v>10437</v>
+        <v>11242</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>126</v>
+        <v>2</v>
       </c>
       <c r="E103" s="2">
-        <v>10505</v>
+        <v>11243</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E104" s="2">
-        <v>10640</v>
+        <v>11244</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="E105" s="2">
-        <v>10411</v>
+        <v>11245</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="E106" s="2">
-        <v>10569</v>
+        <v>11246</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="E107" s="2">
-        <v>10372</v>
+        <v>11247</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E108" s="2">
-        <v>10521</v>
+        <v>11248</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E109" s="2">
-        <v>10453</v>
+        <v>11249</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>204</v>
+        <v>24</v>
       </c>
       <c r="E110" s="2">
-        <v>10383</v>
+        <v>11250</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="G110" s="2"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>206</v>
+        <v>47</v>
       </c>
       <c r="E111" s="2">
-        <v>10375</v>
+        <v>11251</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>208</v>
+        <v>49</v>
       </c>
       <c r="E112" s="2">
-        <v>10489</v>
+        <v>11252</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="E113" s="2">
-        <v>10553</v>
+        <v>11253</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="E114" s="2">
-        <v>10585</v>
+        <v>11254</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>213</v>
+        <v>18</v>
       </c>
       <c r="E115" s="2">
-        <v>10423</v>
+        <v>11255</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E116" s="2">
-        <v>10367</v>
+        <v>11256</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E117" s="2">
-        <v>10639</v>
+        <v>11257</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="G117" s="2"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="E118" s="2">
-        <v>10374</v>
+        <v>11258</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="G118" s="2"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E119" s="2">
-        <v>10497</v>
+        <v>11259</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="G119" s="2"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="E120" s="2">
-        <v>10577</v>
+        <v>11260</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="G120" s="2"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="E121" s="2">
-        <v>10493</v>
+        <v>11261</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="G121" s="2"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>2023</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E122" s="2">
-        <v>10387</v>
+        <v>10419</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>2023</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="E123" s="2">
-        <v>10415</v>
+        <v>10573</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>2023</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="E124" s="2">
-        <v>10549</v>
+        <v>10373</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>2023</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c r="E125" s="2">
-        <v>10399</v>
+        <v>10427</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>2023</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E126" s="2">
-        <v>10457</v>
+        <v>10473</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>2023</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E127" s="2">
-        <v>10441</v>
+        <v>10513</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>2023</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>232</v>
+        <v>39</v>
       </c>
       <c r="E128" s="2">
-        <v>10445</v>
+        <v>10509</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3865,19 +3979,19 @@
         <v>2023</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E129" s="2">
-        <v>10391</v>
+        <v>10481</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3885,19 +3999,19 @@
         <v>2023</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E130" s="2">
-        <v>10477</v>
+        <v>10437</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3905,19 +4019,19 @@
         <v>2023</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>236</v>
+        <v>125</v>
       </c>
       <c r="E131" s="2">
-        <v>10395</v>
+        <v>10505</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3925,19 +4039,19 @@
         <v>2023</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>238</v>
+        <v>28</v>
       </c>
       <c r="E132" s="2">
-        <v>10403</v>
+        <v>10640</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3945,19 +4059,19 @@
         <v>2023</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="E133" s="2">
-        <v>10368</v>
+        <v>10411</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3965,19 +4079,19 @@
         <v>2023</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="E134" s="2">
-        <v>10529</v>
+        <v>10569</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3985,19 +4099,19 @@
         <v>2023</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="E135" s="2">
-        <v>10537</v>
+        <v>10372</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -4005,19 +4119,19 @@
         <v>2023</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="E136" s="2">
-        <v>10485</v>
+        <v>10521</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -4025,19 +4139,19 @@
         <v>2023</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>244</v>
+        <v>83</v>
       </c>
       <c r="E137" s="2">
-        <v>10545</v>
+        <v>10453</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -4045,19 +4159,19 @@
         <v>2023</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>122</v>
+        <v>203</v>
       </c>
       <c r="E138" s="2">
-        <v>10541</v>
+        <v>10383</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -4065,19 +4179,19 @@
         <v>2023</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="E139" s="2">
-        <v>10363</v>
+        <v>10375</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -4085,19 +4199,19 @@
         <v>2023</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="E140" s="2">
-        <v>10407</v>
+        <v>10489</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4105,19 +4219,19 @@
         <v>2023</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>36</v>
+        <v>209</v>
       </c>
       <c r="E141" s="2">
-        <v>10525</v>
+        <v>10553</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4125,19 +4239,19 @@
         <v>2023</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>254</v>
+        <v>141</v>
       </c>
       <c r="E142" s="2">
-        <v>10501</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>253</v>
+        <v>10585</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4145,463 +4259,1023 @@
         <v>2023</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>108</v>
+        <v>212</v>
       </c>
       <c r="E143" s="2">
-        <v>10533</v>
+        <v>10423</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E144" s="2">
-        <v>9840</v>
+        <v>10367</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>257</v>
+        <v>4</v>
       </c>
       <c r="E145" s="2">
-        <v>9766</v>
+        <v>10639</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="E146" s="2">
-        <v>9856</v>
+        <v>10374</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="E147" s="2">
-        <v>9753</v>
+        <v>10497</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="E148" s="2">
-        <v>9770</v>
+        <v>10577</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>134</v>
+        <v>221</v>
       </c>
       <c r="E149" s="2">
-        <v>9864</v>
+        <v>10493</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E150" s="2">
-        <v>9820</v>
+        <v>10387</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E151" s="2">
-        <v>9872</v>
+        <v>10415</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>96</v>
+        <v>225</v>
       </c>
       <c r="E152" s="2">
-        <v>9884</v>
+        <v>10549</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="E153" s="2">
-        <v>9848</v>
+        <v>10399</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E154" s="2">
-        <v>9852</v>
+        <v>10457</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>267</v>
+        <v>14</v>
       </c>
       <c r="E155" s="2">
-        <v>9860</v>
+        <v>10441</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E156" s="2">
-        <v>9832</v>
+        <v>10445</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>270</v>
+        <v>22</v>
       </c>
       <c r="E157" s="2">
-        <v>9868</v>
+        <v>10391</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E158" s="2">
-        <v>9880</v>
+        <v>10477</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="E159" s="2">
-        <v>9828</v>
+        <v>10395</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="E160" s="2">
-        <v>9940</v>
+        <v>10403</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>208</v>
+        <v>26</v>
       </c>
       <c r="E161" s="2">
-        <v>9888</v>
+        <v>10368</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E162" s="2">
-        <v>9844</v>
+        <v>10529</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>238</v>
+        <v>47</v>
       </c>
       <c r="E163" s="2">
-        <v>9778</v>
+        <v>10537</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="E164" s="2">
-        <v>9824</v>
+        <v>10485</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E165" s="2">
+        <v>10545</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E166" s="2">
+        <v>10541</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E167" s="2">
+        <v>10363</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E168" s="2">
+        <v>10407</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E169" s="2">
+        <v>10525</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E170" s="2">
+        <v>10501</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E171" s="2">
+        <v>10533</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
         <v>2022</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E165" s="2">
+      <c r="B172" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E172" s="2">
+        <v>9840</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E173" s="2">
+        <v>9766</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E174" s="2">
+        <v>9856</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E175" s="2">
+        <v>9753</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E176" s="2">
+        <v>9770</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E177" s="2">
+        <v>9864</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E178" s="2">
+        <v>9820</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E179" s="2">
+        <v>9872</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E180" s="2">
+        <v>9884</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E181" s="2">
+        <v>9848</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E182" s="2">
+        <v>9852</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E183" s="2">
+        <v>9860</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E184" s="2">
+        <v>9832</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E185" s="2">
+        <v>9868</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E186" s="2">
+        <v>9880</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E187" s="2">
+        <v>9828</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E188" s="2">
+        <v>9940</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E189" s="2">
+        <v>9888</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E190" s="2">
+        <v>9844</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E191" s="2">
+        <v>9778</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E192" s="2">
+        <v>9824</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E193" s="2">
         <v>9836</v>
       </c>
-      <c r="F165" s="3" t="s">
-        <v>281</v>
+      <c r="F193" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F143" xr:uid="{53345C70-0A1D-4C23-8555-6F45614E97A2}"/>
+  <autoFilter ref="A1:F193" xr:uid="{53345C70-0A1D-4C23-8555-6F45614E97A2}"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{095161D3-3815-4A77-B904-93228BD6103C}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{BF8B7D4A-A830-4337-9BB2-00806CF6F765}"/>
@@ -4695,78 +5369,79 @@
     <hyperlink ref="F91" r:id="rId90" xr:uid="{66BC23DD-161A-483A-BCCF-224ED7876602}"/>
     <hyperlink ref="F92" r:id="rId91" xr:uid="{89B07F51-E5F6-41B7-A176-2C2DAF19DC92}"/>
     <hyperlink ref="F93" r:id="rId92" xr:uid="{44A3E5E7-F51E-4276-88C5-54ED8B6853E9}"/>
-    <hyperlink ref="F94" r:id="rId93" xr:uid="{5774369A-073B-44A6-B096-7CDDC40B51A3}"/>
-    <hyperlink ref="F95" r:id="rId94" xr:uid="{DC63D69F-B019-4FE9-8FEC-1A5343B7199A}"/>
-    <hyperlink ref="F96" r:id="rId95" xr:uid="{C2876AAD-3205-46D8-AA4F-7A9EC9B6B304}"/>
-    <hyperlink ref="F97" r:id="rId96" xr:uid="{30940A32-83F5-4B36-A384-79D00ED889CD}"/>
-    <hyperlink ref="F98" r:id="rId97" xr:uid="{8CEF4AF5-FF5D-41DC-A995-203271A7D423}"/>
-    <hyperlink ref="F99" r:id="rId98" xr:uid="{F46B78EC-CE5D-4C87-961F-C8F0D7608511}"/>
-    <hyperlink ref="F100" r:id="rId99" xr:uid="{B926FA23-F10A-48F5-93F2-248C99C5FF8B}"/>
-    <hyperlink ref="F101" r:id="rId100" xr:uid="{A135FCD2-D44A-4199-8A6E-6201D8AEC8E6}"/>
-    <hyperlink ref="F102" r:id="rId101" xr:uid="{7EAF7CDF-55FD-4F3F-8A6E-62B1BF6DB241}"/>
-    <hyperlink ref="F103" r:id="rId102" xr:uid="{96A98DE4-E22B-47F8-99D6-F1EBBA12EB30}"/>
-    <hyperlink ref="F104" r:id="rId103" xr:uid="{050A78EB-56CD-4813-821F-5F5AE93705C3}"/>
-    <hyperlink ref="F105" r:id="rId104" xr:uid="{876EC7C4-D6D8-4BD8-A395-9BB4CE9A6CFE}"/>
-    <hyperlink ref="F106" r:id="rId105" xr:uid="{E726ED5C-7461-48D0-B035-2792A5CBCE01}"/>
-    <hyperlink ref="F107" r:id="rId106" xr:uid="{F6CC2C40-C762-4339-8279-62D4A43C6285}"/>
-    <hyperlink ref="F108" r:id="rId107" xr:uid="{6E45A0F2-5C06-4427-84C3-16039FF1126B}"/>
-    <hyperlink ref="F109" r:id="rId108" xr:uid="{105D4CDF-C9B9-410A-930A-00743CB52615}"/>
-    <hyperlink ref="F110" r:id="rId109" xr:uid="{AF2E0E74-50D5-4521-AAC3-0F9248E60F1B}"/>
-    <hyperlink ref="F111" r:id="rId110" xr:uid="{A9B269FE-07F2-4DED-B79C-5390E4AFA91C}"/>
-    <hyperlink ref="F112" r:id="rId111" xr:uid="{C04D96BB-0AE0-423E-9FFF-DDC38E34E212}"/>
-    <hyperlink ref="F113" r:id="rId112" xr:uid="{BDC4252F-92E8-4C63-B8B0-E9A08B4887F5}"/>
-    <hyperlink ref="F114" r:id="rId113" xr:uid="{26CFA5BC-48F0-44A5-BE1E-6AB0AEF33D27}"/>
-    <hyperlink ref="F115" r:id="rId114" xr:uid="{BC08915D-4E95-486E-9020-D11B3BDF647B}"/>
-    <hyperlink ref="F116" r:id="rId115" xr:uid="{E30C1B0A-4416-4F8F-A0BA-A57C7665F680}"/>
-    <hyperlink ref="F117" r:id="rId116" xr:uid="{69B03D2D-9AED-4FA2-855E-03230CE1837A}"/>
-    <hyperlink ref="F118" r:id="rId117" xr:uid="{9EF7AED3-E634-46EC-85B3-A30E1DA22751}"/>
-    <hyperlink ref="F119" r:id="rId118" xr:uid="{17137A7F-A854-4D1A-8DC3-6F5786116C00}"/>
-    <hyperlink ref="F120" r:id="rId119" xr:uid="{F0A3AF3E-B1C2-45C2-86AA-E863B573A1F2}"/>
-    <hyperlink ref="F121" r:id="rId120" xr:uid="{5627B1D1-B966-4717-B2BD-6233496C55A5}"/>
-    <hyperlink ref="F122" r:id="rId121" xr:uid="{A59EF945-8A40-4BAD-9527-BBFB30201874}"/>
-    <hyperlink ref="F123" r:id="rId122" xr:uid="{36025A19-B15F-4C59-9A07-B3551135333B}"/>
-    <hyperlink ref="F124" r:id="rId123" xr:uid="{E8FCDE3E-AA47-47F8-90D8-B611BA43B8AD}"/>
-    <hyperlink ref="F125" r:id="rId124" xr:uid="{40ADE729-1243-4CC2-9782-6AD1C853A669}"/>
-    <hyperlink ref="F126" r:id="rId125" xr:uid="{10347FE9-3AB0-4BF6-98AC-38811F1F7057}"/>
-    <hyperlink ref="F127" r:id="rId126" xr:uid="{CCE2EB7C-41A2-46D9-A235-1795FDD6CC6B}"/>
-    <hyperlink ref="F128" r:id="rId127" xr:uid="{A2B9B623-EB5D-41DA-A711-2C41E895DB48}"/>
-    <hyperlink ref="F129" r:id="rId128" xr:uid="{B582EDDD-5CB9-475B-A0EC-9A4BA1666A1A}"/>
-    <hyperlink ref="F130" r:id="rId129" xr:uid="{60BCA634-C88E-4001-92B2-8ECF74307296}"/>
-    <hyperlink ref="F131" r:id="rId130" xr:uid="{625A2B97-EB9A-4D1E-88A6-A510052D1757}"/>
-    <hyperlink ref="F132" r:id="rId131" xr:uid="{E8758625-2C6D-4A17-9FE0-2DA8C2302301}"/>
-    <hyperlink ref="F133" r:id="rId132" xr:uid="{5E828627-FFB7-4D5C-92E0-4EEE36EBEF8B}"/>
-    <hyperlink ref="F134" r:id="rId133" xr:uid="{AD6E0818-0B15-43F7-945D-AEB4EBD77B13}"/>
-    <hyperlink ref="F135" r:id="rId134" xr:uid="{10D5B08B-6C18-465E-86B3-DEBD79D57CD8}"/>
-    <hyperlink ref="F136" r:id="rId135" xr:uid="{F0EE0062-2804-4ABB-A193-7296F4CD9290}"/>
-    <hyperlink ref="F137" r:id="rId136" xr:uid="{E2723E93-EA59-4FD5-B667-661195984F09}"/>
-    <hyperlink ref="F138" r:id="rId137" xr:uid="{CB403BDD-BE89-4D1C-A117-CD0797C62CD9}"/>
-    <hyperlink ref="F139" r:id="rId138" xr:uid="{12321E69-6040-4F68-B64F-77C6F20E24CA}"/>
-    <hyperlink ref="F140" r:id="rId139" xr:uid="{4CBCB5B3-D3CE-43BB-911D-4C5A647B7D63}"/>
-    <hyperlink ref="F141" r:id="rId140" xr:uid="{C3730D04-B4F3-4FD1-9817-A09BED7D4110}"/>
-    <hyperlink ref="F143" r:id="rId141" xr:uid="{F9F7330A-ADE5-4E6C-A2C2-33745687D53F}"/>
-    <hyperlink ref="F142" r:id="rId142" xr:uid="{3EE28015-F7FA-4B6F-90C1-A38A4E107F68}"/>
-    <hyperlink ref="F144" r:id="rId143" xr:uid="{5833DE31-671C-4820-B235-4BB27B06797C}"/>
-    <hyperlink ref="F145" r:id="rId144" xr:uid="{97565C06-4735-4E5B-917A-543C3404024A}"/>
-    <hyperlink ref="F146" r:id="rId145" xr:uid="{C14D1A83-03E0-4929-AED4-E6AF692A1560}"/>
-    <hyperlink ref="F147" r:id="rId146" xr:uid="{C89AF3EB-1908-4CEE-99B3-6F284F98EB69}"/>
-    <hyperlink ref="F148" r:id="rId147" xr:uid="{39E8C3CD-FD50-4B7F-B364-4A2534DE037D}"/>
-    <hyperlink ref="F149" r:id="rId148" xr:uid="{2DA72AF2-7001-41BF-BE33-DE9D1ED153FA}"/>
-    <hyperlink ref="F150" r:id="rId149" xr:uid="{6320810A-CFDF-4010-8BC9-1568327B7D99}"/>
-    <hyperlink ref="F151" r:id="rId150" xr:uid="{80D7E84E-271E-4963-905A-DFB4CAE16986}"/>
-    <hyperlink ref="F152" r:id="rId151" xr:uid="{A84F62B9-A951-464C-89E2-92A339DF0B73}"/>
-    <hyperlink ref="F153" r:id="rId152" xr:uid="{AEFE8381-1CA5-4B80-B7F0-2FFE20A05B10}"/>
-    <hyperlink ref="F154" r:id="rId153" xr:uid="{13309947-E8E5-4986-9D60-AECD7F5D41F3}"/>
-    <hyperlink ref="F155" r:id="rId154" xr:uid="{EA146508-0F53-44C8-A5CA-2BA1CC055E27}"/>
-    <hyperlink ref="F156" r:id="rId155" xr:uid="{BE3EC09C-56D3-4E61-8793-89763372704A}"/>
-    <hyperlink ref="F157" r:id="rId156" xr:uid="{1D1DC132-4505-4AC4-B51C-6B077FC36852}"/>
-    <hyperlink ref="F158" r:id="rId157" xr:uid="{94AC6082-F197-44F8-9C32-9EFBD0A46D77}"/>
-    <hyperlink ref="F159" r:id="rId158" xr:uid="{EF8CCCF0-50A3-433D-A064-D1867645192A}"/>
-    <hyperlink ref="F160" r:id="rId159" xr:uid="{11353669-DCF0-4B4D-BB44-64595FEE2A9E}"/>
-    <hyperlink ref="F161" r:id="rId160" xr:uid="{DDE9BED5-1E0F-4CE7-A0D1-5C0197108C69}"/>
-    <hyperlink ref="F162" r:id="rId161" xr:uid="{1A733BC8-EE2A-473A-AAEA-942894FE59A2}"/>
-    <hyperlink ref="F163" r:id="rId162" xr:uid="{B2E87D8D-A356-4C4B-9676-FEECAAF283A1}"/>
-    <hyperlink ref="F164" r:id="rId163" xr:uid="{61815E11-CAA5-4A5F-9A42-9AFA1BA308C8}"/>
-    <hyperlink ref="F165" r:id="rId164" xr:uid="{1F7B5A1C-69DB-4B9C-9682-E85FE32E7124}"/>
+    <hyperlink ref="F122" r:id="rId93" xr:uid="{5774369A-073B-44A6-B096-7CDDC40B51A3}"/>
+    <hyperlink ref="F123" r:id="rId94" xr:uid="{DC63D69F-B019-4FE9-8FEC-1A5343B7199A}"/>
+    <hyperlink ref="F124" r:id="rId95" xr:uid="{C2876AAD-3205-46D8-AA4F-7A9EC9B6B304}"/>
+    <hyperlink ref="F125" r:id="rId96" xr:uid="{30940A32-83F5-4B36-A384-79D00ED889CD}"/>
+    <hyperlink ref="F126" r:id="rId97" xr:uid="{8CEF4AF5-FF5D-41DC-A995-203271A7D423}"/>
+    <hyperlink ref="F127" r:id="rId98" xr:uid="{F46B78EC-CE5D-4C87-961F-C8F0D7608511}"/>
+    <hyperlink ref="F128" r:id="rId99" xr:uid="{B926FA23-F10A-48F5-93F2-248C99C5FF8B}"/>
+    <hyperlink ref="F129" r:id="rId100" xr:uid="{A135FCD2-D44A-4199-8A6E-6201D8AEC8E6}"/>
+    <hyperlink ref="F130" r:id="rId101" xr:uid="{7EAF7CDF-55FD-4F3F-8A6E-62B1BF6DB241}"/>
+    <hyperlink ref="F131" r:id="rId102" xr:uid="{96A98DE4-E22B-47F8-99D6-F1EBBA12EB30}"/>
+    <hyperlink ref="F132" r:id="rId103" xr:uid="{050A78EB-56CD-4813-821F-5F5AE93705C3}"/>
+    <hyperlink ref="F133" r:id="rId104" xr:uid="{876EC7C4-D6D8-4BD8-A395-9BB4CE9A6CFE}"/>
+    <hyperlink ref="F134" r:id="rId105" xr:uid="{E726ED5C-7461-48D0-B035-2792A5CBCE01}"/>
+    <hyperlink ref="F135" r:id="rId106" xr:uid="{F6CC2C40-C762-4339-8279-62D4A43C6285}"/>
+    <hyperlink ref="F136" r:id="rId107" xr:uid="{6E45A0F2-5C06-4427-84C3-16039FF1126B}"/>
+    <hyperlink ref="F137" r:id="rId108" xr:uid="{105D4CDF-C9B9-410A-930A-00743CB52615}"/>
+    <hyperlink ref="F138" r:id="rId109" xr:uid="{AF2E0E74-50D5-4521-AAC3-0F9248E60F1B}"/>
+    <hyperlink ref="F139" r:id="rId110" xr:uid="{A9B269FE-07F2-4DED-B79C-5390E4AFA91C}"/>
+    <hyperlink ref="F140" r:id="rId111" xr:uid="{C04D96BB-0AE0-423E-9FFF-DDC38E34E212}"/>
+    <hyperlink ref="F141" r:id="rId112" xr:uid="{BDC4252F-92E8-4C63-B8B0-E9A08B4887F5}"/>
+    <hyperlink ref="F142" r:id="rId113" xr:uid="{26CFA5BC-48F0-44A5-BE1E-6AB0AEF33D27}"/>
+    <hyperlink ref="F143" r:id="rId114" xr:uid="{BC08915D-4E95-486E-9020-D11B3BDF647B}"/>
+    <hyperlink ref="F144" r:id="rId115" xr:uid="{E30C1B0A-4416-4F8F-A0BA-A57C7665F680}"/>
+    <hyperlink ref="F145" r:id="rId116" xr:uid="{69B03D2D-9AED-4FA2-855E-03230CE1837A}"/>
+    <hyperlink ref="F146" r:id="rId117" xr:uid="{9EF7AED3-E634-46EC-85B3-A30E1DA22751}"/>
+    <hyperlink ref="F147" r:id="rId118" xr:uid="{17137A7F-A854-4D1A-8DC3-6F5786116C00}"/>
+    <hyperlink ref="F148" r:id="rId119" xr:uid="{F0A3AF3E-B1C2-45C2-86AA-E863B573A1F2}"/>
+    <hyperlink ref="F149" r:id="rId120" xr:uid="{5627B1D1-B966-4717-B2BD-6233496C55A5}"/>
+    <hyperlink ref="F150" r:id="rId121" xr:uid="{A59EF945-8A40-4BAD-9527-BBFB30201874}"/>
+    <hyperlink ref="F151" r:id="rId122" xr:uid="{36025A19-B15F-4C59-9A07-B3551135333B}"/>
+    <hyperlink ref="F152" r:id="rId123" xr:uid="{E8FCDE3E-AA47-47F8-90D8-B611BA43B8AD}"/>
+    <hyperlink ref="F153" r:id="rId124" xr:uid="{40ADE729-1243-4CC2-9782-6AD1C853A669}"/>
+    <hyperlink ref="F154" r:id="rId125" xr:uid="{10347FE9-3AB0-4BF6-98AC-38811F1F7057}"/>
+    <hyperlink ref="F155" r:id="rId126" xr:uid="{CCE2EB7C-41A2-46D9-A235-1795FDD6CC6B}"/>
+    <hyperlink ref="F156" r:id="rId127" xr:uid="{A2B9B623-EB5D-41DA-A711-2C41E895DB48}"/>
+    <hyperlink ref="F157" r:id="rId128" xr:uid="{B582EDDD-5CB9-475B-A0EC-9A4BA1666A1A}"/>
+    <hyperlink ref="F158" r:id="rId129" xr:uid="{60BCA634-C88E-4001-92B2-8ECF74307296}"/>
+    <hyperlink ref="F159" r:id="rId130" xr:uid="{625A2B97-EB9A-4D1E-88A6-A510052D1757}"/>
+    <hyperlink ref="F160" r:id="rId131" xr:uid="{E8758625-2C6D-4A17-9FE0-2DA8C2302301}"/>
+    <hyperlink ref="F161" r:id="rId132" xr:uid="{5E828627-FFB7-4D5C-92E0-4EEE36EBEF8B}"/>
+    <hyperlink ref="F162" r:id="rId133" xr:uid="{AD6E0818-0B15-43F7-945D-AEB4EBD77B13}"/>
+    <hyperlink ref="F163" r:id="rId134" xr:uid="{10D5B08B-6C18-465E-86B3-DEBD79D57CD8}"/>
+    <hyperlink ref="F164" r:id="rId135" xr:uid="{F0EE0062-2804-4ABB-A193-7296F4CD9290}"/>
+    <hyperlink ref="F165" r:id="rId136" xr:uid="{E2723E93-EA59-4FD5-B667-661195984F09}"/>
+    <hyperlink ref="F166" r:id="rId137" xr:uid="{CB403BDD-BE89-4D1C-A117-CD0797C62CD9}"/>
+    <hyperlink ref="F167" r:id="rId138" xr:uid="{12321E69-6040-4F68-B64F-77C6F20E24CA}"/>
+    <hyperlink ref="F168" r:id="rId139" xr:uid="{4CBCB5B3-D3CE-43BB-911D-4C5A647B7D63}"/>
+    <hyperlink ref="F169" r:id="rId140" xr:uid="{C3730D04-B4F3-4FD1-9817-A09BED7D4110}"/>
+    <hyperlink ref="F171" r:id="rId141" xr:uid="{F9F7330A-ADE5-4E6C-A2C2-33745687D53F}"/>
+    <hyperlink ref="F170" r:id="rId142" xr:uid="{3EE28015-F7FA-4B6F-90C1-A38A4E107F68}"/>
+    <hyperlink ref="F172" r:id="rId143" xr:uid="{5833DE31-671C-4820-B235-4BB27B06797C}"/>
+    <hyperlink ref="F173" r:id="rId144" xr:uid="{97565C06-4735-4E5B-917A-543C3404024A}"/>
+    <hyperlink ref="F174" r:id="rId145" xr:uid="{C14D1A83-03E0-4929-AED4-E6AF692A1560}"/>
+    <hyperlink ref="F175" r:id="rId146" xr:uid="{C89AF3EB-1908-4CEE-99B3-6F284F98EB69}"/>
+    <hyperlink ref="F176" r:id="rId147" xr:uid="{39E8C3CD-FD50-4B7F-B364-4A2534DE037D}"/>
+    <hyperlink ref="F177" r:id="rId148" xr:uid="{2DA72AF2-7001-41BF-BE33-DE9D1ED153FA}"/>
+    <hyperlink ref="F178" r:id="rId149" xr:uid="{6320810A-CFDF-4010-8BC9-1568327B7D99}"/>
+    <hyperlink ref="F179" r:id="rId150" xr:uid="{80D7E84E-271E-4963-905A-DFB4CAE16986}"/>
+    <hyperlink ref="F180" r:id="rId151" xr:uid="{A84F62B9-A951-464C-89E2-92A339DF0B73}"/>
+    <hyperlink ref="F181" r:id="rId152" xr:uid="{AEFE8381-1CA5-4B80-B7F0-2FFE20A05B10}"/>
+    <hyperlink ref="F182" r:id="rId153" xr:uid="{13309947-E8E5-4986-9D60-AECD7F5D41F3}"/>
+    <hyperlink ref="F183" r:id="rId154" xr:uid="{EA146508-0F53-44C8-A5CA-2BA1CC055E27}"/>
+    <hyperlink ref="F184" r:id="rId155" xr:uid="{BE3EC09C-56D3-4E61-8793-89763372704A}"/>
+    <hyperlink ref="F185" r:id="rId156" xr:uid="{1D1DC132-4505-4AC4-B51C-6B077FC36852}"/>
+    <hyperlink ref="F186" r:id="rId157" xr:uid="{94AC6082-F197-44F8-9C32-9EFBD0A46D77}"/>
+    <hyperlink ref="F187" r:id="rId158" xr:uid="{EF8CCCF0-50A3-433D-A064-D1867645192A}"/>
+    <hyperlink ref="F188" r:id="rId159" xr:uid="{11353669-DCF0-4B4D-BB44-64595FEE2A9E}"/>
+    <hyperlink ref="F189" r:id="rId160" xr:uid="{DDE9BED5-1E0F-4CE7-A0D1-5C0197108C69}"/>
+    <hyperlink ref="F190" r:id="rId161" xr:uid="{1A733BC8-EE2A-473A-AAEA-942894FE59A2}"/>
+    <hyperlink ref="F191" r:id="rId162" xr:uid="{B2E87D8D-A356-4C4B-9676-FEECAAF283A1}"/>
+    <hyperlink ref="F192" r:id="rId163" xr:uid="{61815E11-CAA5-4A5F-9A42-9AFA1BA308C8}"/>
+    <hyperlink ref="F193" r:id="rId164" xr:uid="{1F7B5A1C-69DB-4B9C-9682-E85FE32E7124}"/>
+    <hyperlink ref="F94" r:id="rId165" xr:uid="{EAEA349A-3734-4A1B-AFDC-20137F957996}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JL\AplicativoEquipes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B697CC1D-3EEC-48A4-A533-A762FAF05BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B72239-9201-4E24-9627-865C61A418FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9AA86512-30D8-4906-A71C-873C92D6CB10}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9AA86512-30D8-4906-A71C-873C92D6CB10}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$193</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$197</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="326">
   <si>
     <t>Nome da Equipe</t>
   </si>
@@ -887,91 +887,136 @@
     <t>ASSOCIAÇÃO BRASILEIRA CULTURAL E DESPORTIVA GUARULHENSE</t>
   </si>
   <si>
-    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11234</t>
-  </si>
-  <si>
     <t>URLdaPáginadeAtletas</t>
   </si>
   <si>
-    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11235</t>
-  </si>
-  <si>
-    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11236</t>
-  </si>
-  <si>
-    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11237</t>
-  </si>
-  <si>
-    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11238</t>
-  </si>
-  <si>
-    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11239</t>
-  </si>
-  <si>
-    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11240</t>
-  </si>
-  <si>
-    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11241</t>
-  </si>
-  <si>
-    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11242</t>
-  </si>
-  <si>
-    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11243</t>
-  </si>
-  <si>
-    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11244</t>
-  </si>
-  <si>
-    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11245</t>
-  </si>
-  <si>
-    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11246</t>
-  </si>
-  <si>
-    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11247</t>
-  </si>
-  <si>
-    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11248</t>
-  </si>
-  <si>
-    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11249</t>
-  </si>
-  <si>
-    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11250</t>
-  </si>
-  <si>
-    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11251</t>
-  </si>
-  <si>
-    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11252</t>
-  </si>
-  <si>
-    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11253</t>
-  </si>
-  <si>
-    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11254</t>
-  </si>
-  <si>
-    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11255</t>
-  </si>
-  <si>
-    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11256</t>
-  </si>
-  <si>
-    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11257</t>
-  </si>
-  <si>
-    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11258</t>
-  </si>
-  <si>
-    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11259</t>
-  </si>
-  <si>
-    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11260</t>
-  </si>
-  <si>
-    <t>https://eventos.admfutsal.com.br/evento/841/equipe/11261</t>
+    <t>PONTO DE ENCONTRO/GRÊMIO GAROTOS FUTSAL</t>
+  </si>
+  <si>
+    <t>ASTROS INDIANO FUTSAL</t>
+  </si>
+  <si>
+    <t>ASSOCIAÇÃO DESPORTIVA SANTO ANDRE FUTSAL</t>
+  </si>
+  <si>
+    <t>KILOUKURA VILA INDUSTRIAL MR7/GUARULHOS</t>
+  </si>
+  <si>
+    <t>ANDREENSE FUTEBOL CLUBE</t>
+  </si>
+  <si>
+    <t>ITAPEVI / SEL / LAIFS</t>
+  </si>
+  <si>
+    <t>OLÉ BRASIL/PUMAS VALINHOS</t>
+  </si>
+  <si>
+    <t>ASSOCIAÇÃO ESPORTIVA FUT MAX</t>
+  </si>
+  <si>
+    <t>ASSOCIAÇÃO UNIÃO MAUÁ</t>
+  </si>
+  <si>
+    <t>CHUTE FUTSAL / ALFA GUARULHOS</t>
+  </si>
+  <si>
+    <t>ASSOCIAÇÃO ESPORTIVA FRIBURGO</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11148</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11222</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11134</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11170</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11238</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11206</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11194</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11136</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11254</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11120</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11202</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11246</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11214</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11218</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11178</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11186</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11156</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11166</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11210</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11198</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11230</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11144</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11182</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11140</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11250</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11190</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11242</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11128</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11012</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11226</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11234</t>
+  </si>
+  <si>
+    <t>https://eventos.admfutsal.com.br/evento/836/equipe/11174</t>
   </si>
 </sst>
 </file>
@@ -1371,9 +1416,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53345C70-0A1D-4C23-8555-6F45614E97A2}">
-  <dimension ref="A1:G193"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D168" sqref="D168"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="107" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1382,7 +1430,7 @@
     <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1402,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1885,7 +1933,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2025</v>
       </c>
@@ -1905,7 +1953,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2025</v>
       </c>
@@ -1925,7 +1973,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2025</v>
       </c>
@@ -1945,7 +1993,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2025</v>
       </c>
@@ -1965,7 +2013,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2025</v>
       </c>
@@ -1985,7 +2033,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2025</v>
       </c>
@@ -2005,7 +2053,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2025</v>
       </c>
@@ -2025,7 +2073,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2025</v>
       </c>
@@ -2045,7 +2093,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2025</v>
       </c>
@@ -2065,7 +2113,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2025</v>
       </c>
@@ -2085,7 +2133,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2025</v>
       </c>
@@ -2105,7 +2153,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2025</v>
       </c>
@@ -2125,7 +2173,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2025</v>
       </c>
@@ -2145,7 +2193,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2025</v>
       </c>
@@ -2165,7 +2213,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2025</v>
       </c>
@@ -2185,7 +2233,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2025</v>
       </c>
@@ -2205,7 +2253,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2025</v>
       </c>
@@ -2225,7 +2273,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>2025</v>
       </c>
@@ -2245,7 +2293,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>2025</v>
       </c>
@@ -2265,7 +2313,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>2025</v>
       </c>
@@ -2285,7 +2333,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>2025</v>
       </c>
@@ -2305,7 +2353,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>2025</v>
       </c>
@@ -2325,7 +2373,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>2025</v>
       </c>
@@ -2345,7 +2393,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>2025</v>
       </c>
@@ -2365,7 +2413,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>2025</v>
       </c>
@@ -2385,7 +2433,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>2025</v>
       </c>
@@ -2405,7 +2453,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>2025</v>
       </c>
@@ -2425,7 +2473,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>2025</v>
       </c>
@@ -2445,7 +2493,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>2025</v>
       </c>
@@ -2465,7 +2513,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>2025</v>
       </c>
@@ -2485,7 +2533,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>2025</v>
       </c>
@@ -2505,7 +2553,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>2025</v>
       </c>
@@ -2525,7 +2573,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>2025</v>
       </c>
@@ -2545,7 +2593,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>2025</v>
       </c>
@@ -2565,7 +2613,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>2025</v>
       </c>
@@ -2585,7 +2633,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>2025</v>
       </c>
@@ -2605,7 +2653,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>2025</v>
       </c>
@@ -2625,7 +2673,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>2025</v>
       </c>
@@ -2645,7 +2693,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>2025</v>
       </c>
@@ -2665,7 +2713,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>2025</v>
       </c>
@@ -2685,7 +2733,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>2025</v>
       </c>
@@ -2705,7 +2753,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>2025</v>
       </c>
@@ -2725,7 +2773,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>2025</v>
       </c>
@@ -2745,7 +2793,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>2025</v>
       </c>
@@ -3248,593 +3296,565 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>35</v>
+        <v>184</v>
       </c>
       <c r="E94" s="2">
-        <v>11234</v>
+        <v>10419</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="G94" s="2"/>
+        <v>185</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="E95" s="2">
-        <v>11235</v>
+        <v>10573</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="G95" s="2"/>
+        <v>186</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="E96" s="2">
-        <v>11236</v>
+        <v>10373</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G96" s="2"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2">
-        <v>11237</v>
+        <v>10427</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G97" s="2"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E98" s="2">
-        <v>11238</v>
+        <v>10473</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="G98" s="2"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="E99" s="2">
-        <v>11239</v>
+        <v>10513</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="G99" s="2"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E100" s="2">
-        <v>11240</v>
+        <v>10509</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="G100" s="2"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E101" s="2">
-        <v>11241</v>
+        <v>10481</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="G101" s="2"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E102" s="2">
+        <v>10437</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E103" s="2">
+        <v>10505</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E104" s="2">
+        <v>10640</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E105" s="2">
+        <v>10411</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E106" s="2">
+        <v>10569</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E107" s="2">
+        <v>10372</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E102" s="2">
-        <v>11242</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="G102" s="2"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E103" s="2">
-        <v>11243</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="G103" s="2"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E104" s="2">
-        <v>11244</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="G104" s="2"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E105" s="2">
-        <v>11245</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="G105" s="2"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E106" s="2">
-        <v>11246</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G106" s="2"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E107" s="2">
-        <v>11247</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G107" s="2"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="E108" s="2">
+        <v>10521</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E109" s="2">
+        <v>10453</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E110" s="2">
+        <v>10383</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E111" s="2">
+        <v>10375</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E112" s="2">
+        <v>10489</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E113" s="2">
+        <v>10553</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E114" s="2">
+        <v>10585</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E115" s="2">
+        <v>10423</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" s="2">
+        <v>10367</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E108" s="2">
-        <v>11248</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="G108" s="2"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E109" s="2">
-        <v>11249</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="G109" s="2"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E110" s="2">
-        <v>11250</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="G110" s="2"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E111" s="2">
-        <v>11251</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="G111" s="2"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E112" s="2">
-        <v>11252</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="G112" s="2"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E113" s="2">
-        <v>11253</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G113" s="2"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E114" s="2">
-        <v>11254</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="G114" s="2"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E115" s="2">
-        <v>11255</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="G115" s="2"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E116" s="2">
-        <v>11256</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G116" s="2"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E117" s="2">
-        <v>11257</v>
+        <v>10639</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="G117" s="2"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="E118" s="2">
-        <v>11258</v>
+        <v>10374</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="G118" s="2"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E119" s="2">
+        <v>10497</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E120" s="2">
+        <v>10577</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E119" s="2">
-        <v>11259</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G119" s="2"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E120" s="2">
-        <v>11260</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="G120" s="2"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="E121" s="2">
-        <v>11261</v>
+        <v>10493</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="G121" s="2"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>2023</v>
       </c>
@@ -3845,16 +3865,16 @@
         <v>52</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
       <c r="E122" s="2">
-        <v>10419</v>
+        <v>10387</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>2023</v>
       </c>
@@ -3865,16 +3885,16 @@
         <v>52</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="E123" s="2">
-        <v>10573</v>
+        <v>10415</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>2023</v>
       </c>
@@ -3885,16 +3905,16 @@
         <v>52</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="E124" s="2">
-        <v>10373</v>
+        <v>10549</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>2023</v>
       </c>
@@ -3905,16 +3925,16 @@
         <v>52</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>109</v>
+        <v>227</v>
       </c>
       <c r="E125" s="2">
-        <v>10427</v>
+        <v>10399</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>2023</v>
       </c>
@@ -3925,16 +3945,16 @@
         <v>52</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E126" s="2">
-        <v>10473</v>
+        <v>10457</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>2023</v>
       </c>
@@ -3945,16 +3965,16 @@
         <v>52</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="E127" s="2">
-        <v>10513</v>
+        <v>10441</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>2023</v>
       </c>
@@ -3965,13 +3985,13 @@
         <v>52</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="E128" s="2">
-        <v>10509</v>
+        <v>10445</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3985,13 +4005,13 @@
         <v>52</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E129" s="2">
-        <v>10481</v>
+        <v>10391</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4005,13 +4025,13 @@
         <v>52</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E130" s="2">
-        <v>10437</v>
+        <v>10477</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4025,13 +4045,13 @@
         <v>52</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>125</v>
+        <v>235</v>
       </c>
       <c r="E131" s="2">
-        <v>10505</v>
+        <v>10395</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4045,13 +4065,13 @@
         <v>52</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>28</v>
+        <v>237</v>
       </c>
       <c r="E132" s="2">
-        <v>10640</v>
+        <v>10403</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -4065,13 +4085,13 @@
         <v>52</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="E133" s="2">
-        <v>10411</v>
+        <v>10368</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -4085,13 +4105,13 @@
         <v>52</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="E134" s="2">
-        <v>10569</v>
+        <v>10529</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4105,13 +4125,13 @@
         <v>52</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c r="E135" s="2">
-        <v>10372</v>
+        <v>10537</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -4125,13 +4145,13 @@
         <v>52</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="E136" s="2">
-        <v>10521</v>
+        <v>10485</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -4145,13 +4165,13 @@
         <v>52</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>83</v>
+        <v>243</v>
       </c>
       <c r="E137" s="2">
-        <v>10453</v>
+        <v>10545</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -4165,13 +4185,13 @@
         <v>52</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="E138" s="2">
-        <v>10383</v>
+        <v>10541</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -4185,13 +4205,13 @@
         <v>52</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="E139" s="2">
-        <v>10375</v>
+        <v>10363</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -4205,13 +4225,13 @@
         <v>52</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="E140" s="2">
-        <v>10489</v>
+        <v>10407</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4225,13 +4245,13 @@
         <v>52</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>209</v>
+        <v>35</v>
       </c>
       <c r="E141" s="2">
-        <v>10553</v>
+        <v>10525</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4245,13 +4265,13 @@
         <v>52</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>141</v>
+        <v>253</v>
       </c>
       <c r="E142" s="2">
-        <v>10585</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>211</v>
+        <v>10501</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4265,1017 +4285,1103 @@
         <v>52</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="E143" s="2">
-        <v>10423</v>
+        <v>10533</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E144" s="2">
+        <v>9840</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E145" s="2">
+        <v>9766</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E146" s="2">
+        <v>9856</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E147" s="2">
+        <v>9753</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E148" s="2">
+        <v>9770</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E149" s="2">
+        <v>9864</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E150" s="2">
+        <v>9820</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E151" s="2">
+        <v>9872</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E152" s="2">
+        <v>9884</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E153" s="2">
+        <v>9848</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E154" s="2">
+        <v>9852</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E155" s="2">
+        <v>9860</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E156" s="2">
+        <v>9832</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E157" s="2">
+        <v>9868</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E158" s="2">
+        <v>9880</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E159" s="2">
+        <v>9828</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E160" s="2">
+        <v>9940</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E161" s="2">
+        <v>9888</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E162" s="2">
+        <v>9844</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E163" s="2">
+        <v>9778</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E164" s="2">
+        <v>9824</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E144" s="2">
-        <v>10367</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E145" s="2">
-        <v>10639</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D146" s="2" t="s">
+      <c r="E165" s="2">
+        <v>9836</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>2024</v>
+      </c>
+      <c r="B166" t="s">
+        <v>145</v>
+      </c>
+      <c r="C166" t="s">
+        <v>56</v>
+      </c>
+      <c r="D166" t="s">
+        <v>283</v>
+      </c>
+      <c r="E166">
+        <v>11148</v>
+      </c>
+      <c r="F166" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>2024</v>
+      </c>
+      <c r="B167" t="s">
+        <v>145</v>
+      </c>
+      <c r="C167" t="s">
+        <v>56</v>
+      </c>
+      <c r="D167" t="s">
+        <v>91</v>
+      </c>
+      <c r="E167">
+        <v>11222</v>
+      </c>
+      <c r="F167" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>2024</v>
+      </c>
+      <c r="B168" t="s">
+        <v>145</v>
+      </c>
+      <c r="C168" t="s">
+        <v>56</v>
+      </c>
+      <c r="D168" t="s">
+        <v>33</v>
+      </c>
+      <c r="E168">
+        <v>11134</v>
+      </c>
+      <c r="F168" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>2024</v>
+      </c>
+      <c r="B169" t="s">
+        <v>145</v>
+      </c>
+      <c r="C169" t="s">
+        <v>56</v>
+      </c>
+      <c r="D169" t="s">
+        <v>284</v>
+      </c>
+      <c r="E169">
+        <v>11170</v>
+      </c>
+      <c r="F169" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>2024</v>
+      </c>
+      <c r="B170" t="s">
+        <v>145</v>
+      </c>
+      <c r="C170" t="s">
+        <v>56</v>
+      </c>
+      <c r="D170" t="s">
+        <v>285</v>
+      </c>
+      <c r="E170">
+        <v>11238</v>
+      </c>
+      <c r="F170" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>2024</v>
+      </c>
+      <c r="B171" t="s">
+        <v>145</v>
+      </c>
+      <c r="C171" t="s">
+        <v>56</v>
+      </c>
+      <c r="D171" t="s">
+        <v>97</v>
+      </c>
+      <c r="E171">
+        <v>11206</v>
+      </c>
+      <c r="F171" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>2024</v>
+      </c>
+      <c r="B172" t="s">
+        <v>145</v>
+      </c>
+      <c r="C172" t="s">
+        <v>56</v>
+      </c>
+      <c r="D172" t="s">
+        <v>63</v>
+      </c>
+      <c r="E172">
+        <v>11194</v>
+      </c>
+      <c r="F172" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>2024</v>
+      </c>
+      <c r="B173" t="s">
+        <v>145</v>
+      </c>
+      <c r="C173" t="s">
+        <v>56</v>
+      </c>
+      <c r="D173" t="s">
+        <v>235</v>
+      </c>
+      <c r="E173">
+        <v>11136</v>
+      </c>
+      <c r="F173" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>2024</v>
+      </c>
+      <c r="B174" t="s">
+        <v>145</v>
+      </c>
+      <c r="C174" t="s">
+        <v>56</v>
+      </c>
+      <c r="D174" t="s">
+        <v>221</v>
+      </c>
+      <c r="E174">
+        <v>11254</v>
+      </c>
+      <c r="F174" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>2024</v>
+      </c>
+      <c r="B175" t="s">
+        <v>145</v>
+      </c>
+      <c r="C175" t="s">
+        <v>56</v>
+      </c>
+      <c r="D175" t="s">
+        <v>286</v>
+      </c>
+      <c r="E175">
+        <v>11120</v>
+      </c>
+      <c r="F175" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>2024</v>
+      </c>
+      <c r="B176" t="s">
+        <v>145</v>
+      </c>
+      <c r="C176" t="s">
+        <v>56</v>
+      </c>
+      <c r="D176" t="s">
+        <v>287</v>
+      </c>
+      <c r="E176">
+        <v>11202</v>
+      </c>
+      <c r="F176" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>2024</v>
+      </c>
+      <c r="B177" t="s">
+        <v>145</v>
+      </c>
+      <c r="C177" t="s">
+        <v>56</v>
+      </c>
+      <c r="D177" t="s">
+        <v>121</v>
+      </c>
+      <c r="E177">
+        <v>11246</v>
+      </c>
+      <c r="F177" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>2024</v>
+      </c>
+      <c r="B178" t="s">
+        <v>145</v>
+      </c>
+      <c r="C178" t="s">
+        <v>56</v>
+      </c>
+      <c r="D178" t="s">
+        <v>107</v>
+      </c>
+      <c r="E178">
+        <v>11214</v>
+      </c>
+      <c r="F178" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>2024</v>
+      </c>
+      <c r="B179" t="s">
+        <v>145</v>
+      </c>
+      <c r="C179" t="s">
+        <v>56</v>
+      </c>
+      <c r="D179" t="s">
+        <v>237</v>
+      </c>
+      <c r="E179">
+        <v>11218</v>
+      </c>
+      <c r="F179" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>2024</v>
+      </c>
+      <c r="B180" t="s">
+        <v>145</v>
+      </c>
+      <c r="C180" t="s">
+        <v>56</v>
+      </c>
+      <c r="D180" t="s">
+        <v>103</v>
+      </c>
+      <c r="E180">
+        <v>11178</v>
+      </c>
+      <c r="F180" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>2024</v>
+      </c>
+      <c r="B181" t="s">
+        <v>145</v>
+      </c>
+      <c r="C181" t="s">
+        <v>56</v>
+      </c>
+      <c r="D181" t="s">
+        <v>288</v>
+      </c>
+      <c r="E181">
+        <v>11186</v>
+      </c>
+      <c r="F181" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>2024</v>
+      </c>
+      <c r="B182" t="s">
+        <v>145</v>
+      </c>
+      <c r="C182" t="s">
+        <v>56</v>
+      </c>
+      <c r="D182" t="s">
+        <v>289</v>
+      </c>
+      <c r="E182">
+        <v>11156</v>
+      </c>
+      <c r="F182" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>2024</v>
+      </c>
+      <c r="B183" t="s">
+        <v>145</v>
+      </c>
+      <c r="C183" t="s">
+        <v>56</v>
+      </c>
+      <c r="D183" t="s">
+        <v>101</v>
+      </c>
+      <c r="E183">
+        <v>11166</v>
+      </c>
+      <c r="F183" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>2024</v>
+      </c>
+      <c r="B184" t="s">
+        <v>145</v>
+      </c>
+      <c r="C184" t="s">
+        <v>56</v>
+      </c>
+      <c r="D184" t="s">
+        <v>231</v>
+      </c>
+      <c r="E184">
+        <v>11210</v>
+      </c>
+      <c r="F184" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>2024</v>
+      </c>
+      <c r="B185" t="s">
+        <v>145</v>
+      </c>
+      <c r="C185" t="s">
+        <v>56</v>
+      </c>
+      <c r="D185" t="s">
+        <v>83</v>
+      </c>
+      <c r="E185">
+        <v>11198</v>
+      </c>
+      <c r="F185" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>2024</v>
+      </c>
+      <c r="B186" t="s">
+        <v>145</v>
+      </c>
+      <c r="C186" t="s">
+        <v>56</v>
+      </c>
+      <c r="D186" t="s">
+        <v>248</v>
+      </c>
+      <c r="E186">
+        <v>11230</v>
+      </c>
+      <c r="F186" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>2024</v>
+      </c>
+      <c r="B187" t="s">
+        <v>145</v>
+      </c>
+      <c r="C187" t="s">
+        <v>56</v>
+      </c>
+      <c r="D187" t="s">
+        <v>141</v>
+      </c>
+      <c r="E187">
+        <v>11144</v>
+      </c>
+      <c r="F187" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>2024</v>
+      </c>
+      <c r="B188" t="s">
+        <v>145</v>
+      </c>
+      <c r="C188" t="s">
+        <v>56</v>
+      </c>
+      <c r="D188" t="s">
+        <v>290</v>
+      </c>
+      <c r="E188">
+        <v>11182</v>
+      </c>
+      <c r="F188" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>2024</v>
+      </c>
+      <c r="B189" t="s">
+        <v>145</v>
+      </c>
+      <c r="C189" t="s">
+        <v>56</v>
+      </c>
+      <c r="D189" t="s">
+        <v>207</v>
+      </c>
+      <c r="E189">
+        <v>11140</v>
+      </c>
+      <c r="F189" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>2024</v>
+      </c>
+      <c r="B190" t="s">
+        <v>145</v>
+      </c>
+      <c r="C190" t="s">
+        <v>56</v>
+      </c>
+      <c r="D190" t="s">
+        <v>291</v>
+      </c>
+      <c r="E190">
+        <v>11250</v>
+      </c>
+      <c r="F190" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>2024</v>
+      </c>
+      <c r="B191" t="s">
+        <v>145</v>
+      </c>
+      <c r="C191" t="s">
+        <v>56</v>
+      </c>
+      <c r="D191" t="s">
+        <v>281</v>
+      </c>
+      <c r="E191">
+        <v>11190</v>
+      </c>
+      <c r="F191" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>2024</v>
+      </c>
+      <c r="B192" t="s">
+        <v>145</v>
+      </c>
+      <c r="C192" t="s">
+        <v>56</v>
+      </c>
+      <c r="D192" t="s">
+        <v>292</v>
+      </c>
+      <c r="E192">
+        <v>11242</v>
+      </c>
+      <c r="F192" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>2024</v>
+      </c>
+      <c r="B193" t="s">
+        <v>145</v>
+      </c>
+      <c r="C193" t="s">
+        <v>56</v>
+      </c>
+      <c r="D193" t="s">
+        <v>293</v>
+      </c>
+      <c r="E193">
+        <v>11128</v>
+      </c>
+      <c r="F193" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>2024</v>
+      </c>
+      <c r="B194" t="s">
+        <v>145</v>
+      </c>
+      <c r="C194" t="s">
+        <v>56</v>
+      </c>
+      <c r="D194" t="s">
+        <v>20</v>
+      </c>
+      <c r="E194">
+        <v>11012</v>
+      </c>
+      <c r="F194" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>2024</v>
+      </c>
+      <c r="B195" t="s">
+        <v>145</v>
+      </c>
+      <c r="C195" t="s">
+        <v>56</v>
+      </c>
+      <c r="D195" t="s">
         <v>216</v>
       </c>
-      <c r="E146" s="2">
-        <v>10374</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E147" s="2">
-        <v>10497</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E148" s="2">
-        <v>10577</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E149" s="2">
-        <v>10493</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E150" s="2">
-        <v>10387</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E151" s="2">
-        <v>10415</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E152" s="2">
-        <v>10549</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E153" s="2">
-        <v>10399</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E154" s="2">
-        <v>10457</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E155" s="2">
-        <v>10441</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E156" s="2">
-        <v>10445</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E157" s="2">
-        <v>10391</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D158" s="2" t="s">
+      <c r="E195">
+        <v>11226</v>
+      </c>
+      <c r="F195" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>2024</v>
+      </c>
+      <c r="B196" t="s">
+        <v>145</v>
+      </c>
+      <c r="C196" t="s">
+        <v>56</v>
+      </c>
+      <c r="D196" t="s">
+        <v>57</v>
+      </c>
+      <c r="E196">
+        <v>11234</v>
+      </c>
+      <c r="F196" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>2024</v>
+      </c>
+      <c r="B197" t="s">
+        <v>145</v>
+      </c>
+      <c r="C197" t="s">
+        <v>56</v>
+      </c>
+      <c r="D197" t="s">
         <v>79</v>
       </c>
-      <c r="E158" s="2">
-        <v>10477</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E159" s="2">
-        <v>10395</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E160" s="2">
-        <v>10403</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E161" s="2">
-        <v>10368</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E162" s="2">
-        <v>10529</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E163" s="2">
-        <v>10537</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E164" s="2">
-        <v>10485</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E165" s="2">
-        <v>10545</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E166" s="2">
-        <v>10541</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E167" s="2">
-        <v>10363</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E168" s="2">
-        <v>10407</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E169" s="2">
-        <v>10525</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E170" s="2">
-        <v>10501</v>
-      </c>
-      <c r="F170" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E171" s="2">
-        <v>10533</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E172" s="2">
-        <v>9840</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E173" s="2">
-        <v>9766</v>
-      </c>
-      <c r="F173" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E174" s="2">
-        <v>9856</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E175" s="2">
-        <v>9753</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E176" s="2">
-        <v>9770</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E177" s="2">
-        <v>9864</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E178" s="2">
-        <v>9820</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E179" s="2">
-        <v>9872</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E180" s="2">
-        <v>9884</v>
-      </c>
-      <c r="F180" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E181" s="2">
-        <v>9848</v>
-      </c>
-      <c r="F181" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E182" s="2">
-        <v>9852</v>
-      </c>
-      <c r="F182" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E183" s="2">
-        <v>9860</v>
-      </c>
-      <c r="F183" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E184" s="2">
-        <v>9832</v>
-      </c>
-      <c r="F184" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E185" s="2">
-        <v>9868</v>
-      </c>
-      <c r="F185" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E186" s="2">
-        <v>9880</v>
-      </c>
-      <c r="F186" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E187" s="2">
-        <v>9828</v>
-      </c>
-      <c r="F187" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E188" s="2">
-        <v>9940</v>
-      </c>
-      <c r="F188" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E189" s="2">
-        <v>9888</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E190" s="2">
-        <v>9844</v>
-      </c>
-      <c r="F190" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E191" s="2">
-        <v>9778</v>
-      </c>
-      <c r="F191" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E192" s="2">
-        <v>9824</v>
-      </c>
-      <c r="F192" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E193" s="2">
-        <v>9836</v>
-      </c>
-      <c r="F193" s="3" t="s">
-        <v>280</v>
+      <c r="E197">
+        <v>11174</v>
+      </c>
+      <c r="F197" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F193" xr:uid="{53345C70-0A1D-4C23-8555-6F45614E97A2}"/>
+  <autoFilter ref="A1:F197" xr:uid="{53345C70-0A1D-4C23-8555-6F45614E97A2}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="A1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{095161D3-3815-4A77-B904-93228BD6103C}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{BF8B7D4A-A830-4337-9BB2-00806CF6F765}"/>
@@ -5369,79 +5475,79 @@
     <hyperlink ref="F91" r:id="rId90" xr:uid="{66BC23DD-161A-483A-BCCF-224ED7876602}"/>
     <hyperlink ref="F92" r:id="rId91" xr:uid="{89B07F51-E5F6-41B7-A176-2C2DAF19DC92}"/>
     <hyperlink ref="F93" r:id="rId92" xr:uid="{44A3E5E7-F51E-4276-88C5-54ED8B6853E9}"/>
-    <hyperlink ref="F122" r:id="rId93" xr:uid="{5774369A-073B-44A6-B096-7CDDC40B51A3}"/>
-    <hyperlink ref="F123" r:id="rId94" xr:uid="{DC63D69F-B019-4FE9-8FEC-1A5343B7199A}"/>
-    <hyperlink ref="F124" r:id="rId95" xr:uid="{C2876AAD-3205-46D8-AA4F-7A9EC9B6B304}"/>
-    <hyperlink ref="F125" r:id="rId96" xr:uid="{30940A32-83F5-4B36-A384-79D00ED889CD}"/>
-    <hyperlink ref="F126" r:id="rId97" xr:uid="{8CEF4AF5-FF5D-41DC-A995-203271A7D423}"/>
-    <hyperlink ref="F127" r:id="rId98" xr:uid="{F46B78EC-CE5D-4C87-961F-C8F0D7608511}"/>
-    <hyperlink ref="F128" r:id="rId99" xr:uid="{B926FA23-F10A-48F5-93F2-248C99C5FF8B}"/>
-    <hyperlink ref="F129" r:id="rId100" xr:uid="{A135FCD2-D44A-4199-8A6E-6201D8AEC8E6}"/>
-    <hyperlink ref="F130" r:id="rId101" xr:uid="{7EAF7CDF-55FD-4F3F-8A6E-62B1BF6DB241}"/>
-    <hyperlink ref="F131" r:id="rId102" xr:uid="{96A98DE4-E22B-47F8-99D6-F1EBBA12EB30}"/>
-    <hyperlink ref="F132" r:id="rId103" xr:uid="{050A78EB-56CD-4813-821F-5F5AE93705C3}"/>
-    <hyperlink ref="F133" r:id="rId104" xr:uid="{876EC7C4-D6D8-4BD8-A395-9BB4CE9A6CFE}"/>
-    <hyperlink ref="F134" r:id="rId105" xr:uid="{E726ED5C-7461-48D0-B035-2792A5CBCE01}"/>
-    <hyperlink ref="F135" r:id="rId106" xr:uid="{F6CC2C40-C762-4339-8279-62D4A43C6285}"/>
-    <hyperlink ref="F136" r:id="rId107" xr:uid="{6E45A0F2-5C06-4427-84C3-16039FF1126B}"/>
-    <hyperlink ref="F137" r:id="rId108" xr:uid="{105D4CDF-C9B9-410A-930A-00743CB52615}"/>
-    <hyperlink ref="F138" r:id="rId109" xr:uid="{AF2E0E74-50D5-4521-AAC3-0F9248E60F1B}"/>
-    <hyperlink ref="F139" r:id="rId110" xr:uid="{A9B269FE-07F2-4DED-B79C-5390E4AFA91C}"/>
-    <hyperlink ref="F140" r:id="rId111" xr:uid="{C04D96BB-0AE0-423E-9FFF-DDC38E34E212}"/>
-    <hyperlink ref="F141" r:id="rId112" xr:uid="{BDC4252F-92E8-4C63-B8B0-E9A08B4887F5}"/>
-    <hyperlink ref="F142" r:id="rId113" xr:uid="{26CFA5BC-48F0-44A5-BE1E-6AB0AEF33D27}"/>
-    <hyperlink ref="F143" r:id="rId114" xr:uid="{BC08915D-4E95-486E-9020-D11B3BDF647B}"/>
-    <hyperlink ref="F144" r:id="rId115" xr:uid="{E30C1B0A-4416-4F8F-A0BA-A57C7665F680}"/>
-    <hyperlink ref="F145" r:id="rId116" xr:uid="{69B03D2D-9AED-4FA2-855E-03230CE1837A}"/>
-    <hyperlink ref="F146" r:id="rId117" xr:uid="{9EF7AED3-E634-46EC-85B3-A30E1DA22751}"/>
-    <hyperlink ref="F147" r:id="rId118" xr:uid="{17137A7F-A854-4D1A-8DC3-6F5786116C00}"/>
-    <hyperlink ref="F148" r:id="rId119" xr:uid="{F0A3AF3E-B1C2-45C2-86AA-E863B573A1F2}"/>
-    <hyperlink ref="F149" r:id="rId120" xr:uid="{5627B1D1-B966-4717-B2BD-6233496C55A5}"/>
-    <hyperlink ref="F150" r:id="rId121" xr:uid="{A59EF945-8A40-4BAD-9527-BBFB30201874}"/>
-    <hyperlink ref="F151" r:id="rId122" xr:uid="{36025A19-B15F-4C59-9A07-B3551135333B}"/>
-    <hyperlink ref="F152" r:id="rId123" xr:uid="{E8FCDE3E-AA47-47F8-90D8-B611BA43B8AD}"/>
-    <hyperlink ref="F153" r:id="rId124" xr:uid="{40ADE729-1243-4CC2-9782-6AD1C853A669}"/>
-    <hyperlink ref="F154" r:id="rId125" xr:uid="{10347FE9-3AB0-4BF6-98AC-38811F1F7057}"/>
-    <hyperlink ref="F155" r:id="rId126" xr:uid="{CCE2EB7C-41A2-46D9-A235-1795FDD6CC6B}"/>
-    <hyperlink ref="F156" r:id="rId127" xr:uid="{A2B9B623-EB5D-41DA-A711-2C41E895DB48}"/>
-    <hyperlink ref="F157" r:id="rId128" xr:uid="{B582EDDD-5CB9-475B-A0EC-9A4BA1666A1A}"/>
-    <hyperlink ref="F158" r:id="rId129" xr:uid="{60BCA634-C88E-4001-92B2-8ECF74307296}"/>
-    <hyperlink ref="F159" r:id="rId130" xr:uid="{625A2B97-EB9A-4D1E-88A6-A510052D1757}"/>
-    <hyperlink ref="F160" r:id="rId131" xr:uid="{E8758625-2C6D-4A17-9FE0-2DA8C2302301}"/>
-    <hyperlink ref="F161" r:id="rId132" xr:uid="{5E828627-FFB7-4D5C-92E0-4EEE36EBEF8B}"/>
-    <hyperlink ref="F162" r:id="rId133" xr:uid="{AD6E0818-0B15-43F7-945D-AEB4EBD77B13}"/>
-    <hyperlink ref="F163" r:id="rId134" xr:uid="{10D5B08B-6C18-465E-86B3-DEBD79D57CD8}"/>
-    <hyperlink ref="F164" r:id="rId135" xr:uid="{F0EE0062-2804-4ABB-A193-7296F4CD9290}"/>
-    <hyperlink ref="F165" r:id="rId136" xr:uid="{E2723E93-EA59-4FD5-B667-661195984F09}"/>
-    <hyperlink ref="F166" r:id="rId137" xr:uid="{CB403BDD-BE89-4D1C-A117-CD0797C62CD9}"/>
-    <hyperlink ref="F167" r:id="rId138" xr:uid="{12321E69-6040-4F68-B64F-77C6F20E24CA}"/>
-    <hyperlink ref="F168" r:id="rId139" xr:uid="{4CBCB5B3-D3CE-43BB-911D-4C5A647B7D63}"/>
-    <hyperlink ref="F169" r:id="rId140" xr:uid="{C3730D04-B4F3-4FD1-9817-A09BED7D4110}"/>
-    <hyperlink ref="F171" r:id="rId141" xr:uid="{F9F7330A-ADE5-4E6C-A2C2-33745687D53F}"/>
-    <hyperlink ref="F170" r:id="rId142" xr:uid="{3EE28015-F7FA-4B6F-90C1-A38A4E107F68}"/>
-    <hyperlink ref="F172" r:id="rId143" xr:uid="{5833DE31-671C-4820-B235-4BB27B06797C}"/>
-    <hyperlink ref="F173" r:id="rId144" xr:uid="{97565C06-4735-4E5B-917A-543C3404024A}"/>
-    <hyperlink ref="F174" r:id="rId145" xr:uid="{C14D1A83-03E0-4929-AED4-E6AF692A1560}"/>
-    <hyperlink ref="F175" r:id="rId146" xr:uid="{C89AF3EB-1908-4CEE-99B3-6F284F98EB69}"/>
-    <hyperlink ref="F176" r:id="rId147" xr:uid="{39E8C3CD-FD50-4B7F-B364-4A2534DE037D}"/>
-    <hyperlink ref="F177" r:id="rId148" xr:uid="{2DA72AF2-7001-41BF-BE33-DE9D1ED153FA}"/>
-    <hyperlink ref="F178" r:id="rId149" xr:uid="{6320810A-CFDF-4010-8BC9-1568327B7D99}"/>
-    <hyperlink ref="F179" r:id="rId150" xr:uid="{80D7E84E-271E-4963-905A-DFB4CAE16986}"/>
-    <hyperlink ref="F180" r:id="rId151" xr:uid="{A84F62B9-A951-464C-89E2-92A339DF0B73}"/>
-    <hyperlink ref="F181" r:id="rId152" xr:uid="{AEFE8381-1CA5-4B80-B7F0-2FFE20A05B10}"/>
-    <hyperlink ref="F182" r:id="rId153" xr:uid="{13309947-E8E5-4986-9D60-AECD7F5D41F3}"/>
-    <hyperlink ref="F183" r:id="rId154" xr:uid="{EA146508-0F53-44C8-A5CA-2BA1CC055E27}"/>
-    <hyperlink ref="F184" r:id="rId155" xr:uid="{BE3EC09C-56D3-4E61-8793-89763372704A}"/>
-    <hyperlink ref="F185" r:id="rId156" xr:uid="{1D1DC132-4505-4AC4-B51C-6B077FC36852}"/>
-    <hyperlink ref="F186" r:id="rId157" xr:uid="{94AC6082-F197-44F8-9C32-9EFBD0A46D77}"/>
-    <hyperlink ref="F187" r:id="rId158" xr:uid="{EF8CCCF0-50A3-433D-A064-D1867645192A}"/>
-    <hyperlink ref="F188" r:id="rId159" xr:uid="{11353669-DCF0-4B4D-BB44-64595FEE2A9E}"/>
-    <hyperlink ref="F189" r:id="rId160" xr:uid="{DDE9BED5-1E0F-4CE7-A0D1-5C0197108C69}"/>
-    <hyperlink ref="F190" r:id="rId161" xr:uid="{1A733BC8-EE2A-473A-AAEA-942894FE59A2}"/>
-    <hyperlink ref="F191" r:id="rId162" xr:uid="{B2E87D8D-A356-4C4B-9676-FEECAAF283A1}"/>
-    <hyperlink ref="F192" r:id="rId163" xr:uid="{61815E11-CAA5-4A5F-9A42-9AFA1BA308C8}"/>
-    <hyperlink ref="F193" r:id="rId164" xr:uid="{1F7B5A1C-69DB-4B9C-9682-E85FE32E7124}"/>
-    <hyperlink ref="F94" r:id="rId165" xr:uid="{EAEA349A-3734-4A1B-AFDC-20137F957996}"/>
+    <hyperlink ref="F94" r:id="rId93" xr:uid="{5774369A-073B-44A6-B096-7CDDC40B51A3}"/>
+    <hyperlink ref="F95" r:id="rId94" xr:uid="{DC63D69F-B019-4FE9-8FEC-1A5343B7199A}"/>
+    <hyperlink ref="F96" r:id="rId95" xr:uid="{C2876AAD-3205-46D8-AA4F-7A9EC9B6B304}"/>
+    <hyperlink ref="F97" r:id="rId96" xr:uid="{30940A32-83F5-4B36-A384-79D00ED889CD}"/>
+    <hyperlink ref="F98" r:id="rId97" xr:uid="{8CEF4AF5-FF5D-41DC-A995-203271A7D423}"/>
+    <hyperlink ref="F99" r:id="rId98" xr:uid="{F46B78EC-CE5D-4C87-961F-C8F0D7608511}"/>
+    <hyperlink ref="F100" r:id="rId99" xr:uid="{B926FA23-F10A-48F5-93F2-248C99C5FF8B}"/>
+    <hyperlink ref="F101" r:id="rId100" xr:uid="{A135FCD2-D44A-4199-8A6E-6201D8AEC8E6}"/>
+    <hyperlink ref="F102" r:id="rId101" xr:uid="{7EAF7CDF-55FD-4F3F-8A6E-62B1BF6DB241}"/>
+    <hyperlink ref="F103" r:id="rId102" xr:uid="{96A98DE4-E22B-47F8-99D6-F1EBBA12EB30}"/>
+    <hyperlink ref="F104" r:id="rId103" xr:uid="{050A78EB-56CD-4813-821F-5F5AE93705C3}"/>
+    <hyperlink ref="F105" r:id="rId104" xr:uid="{876EC7C4-D6D8-4BD8-A395-9BB4CE9A6CFE}"/>
+    <hyperlink ref="F106" r:id="rId105" xr:uid="{E726ED5C-7461-48D0-B035-2792A5CBCE01}"/>
+    <hyperlink ref="F107" r:id="rId106" xr:uid="{F6CC2C40-C762-4339-8279-62D4A43C6285}"/>
+    <hyperlink ref="F108" r:id="rId107" xr:uid="{6E45A0F2-5C06-4427-84C3-16039FF1126B}"/>
+    <hyperlink ref="F109" r:id="rId108" xr:uid="{105D4CDF-C9B9-410A-930A-00743CB52615}"/>
+    <hyperlink ref="F110" r:id="rId109" xr:uid="{AF2E0E74-50D5-4521-AAC3-0F9248E60F1B}"/>
+    <hyperlink ref="F111" r:id="rId110" xr:uid="{A9B269FE-07F2-4DED-B79C-5390E4AFA91C}"/>
+    <hyperlink ref="F112" r:id="rId111" xr:uid="{C04D96BB-0AE0-423E-9FFF-DDC38E34E212}"/>
+    <hyperlink ref="F113" r:id="rId112" xr:uid="{BDC4252F-92E8-4C63-B8B0-E9A08B4887F5}"/>
+    <hyperlink ref="F114" r:id="rId113" xr:uid="{26CFA5BC-48F0-44A5-BE1E-6AB0AEF33D27}"/>
+    <hyperlink ref="F115" r:id="rId114" xr:uid="{BC08915D-4E95-486E-9020-D11B3BDF647B}"/>
+    <hyperlink ref="F116" r:id="rId115" xr:uid="{E30C1B0A-4416-4F8F-A0BA-A57C7665F680}"/>
+    <hyperlink ref="F117" r:id="rId116" xr:uid="{69B03D2D-9AED-4FA2-855E-03230CE1837A}"/>
+    <hyperlink ref="F118" r:id="rId117" xr:uid="{9EF7AED3-E634-46EC-85B3-A30E1DA22751}"/>
+    <hyperlink ref="F119" r:id="rId118" xr:uid="{17137A7F-A854-4D1A-8DC3-6F5786116C00}"/>
+    <hyperlink ref="F120" r:id="rId119" xr:uid="{F0A3AF3E-B1C2-45C2-86AA-E863B573A1F2}"/>
+    <hyperlink ref="F121" r:id="rId120" xr:uid="{5627B1D1-B966-4717-B2BD-6233496C55A5}"/>
+    <hyperlink ref="F122" r:id="rId121" xr:uid="{A59EF945-8A40-4BAD-9527-BBFB30201874}"/>
+    <hyperlink ref="F123" r:id="rId122" xr:uid="{36025A19-B15F-4C59-9A07-B3551135333B}"/>
+    <hyperlink ref="F124" r:id="rId123" xr:uid="{E8FCDE3E-AA47-47F8-90D8-B611BA43B8AD}"/>
+    <hyperlink ref="F125" r:id="rId124" xr:uid="{40ADE729-1243-4CC2-9782-6AD1C853A669}"/>
+    <hyperlink ref="F126" r:id="rId125" xr:uid="{10347FE9-3AB0-4BF6-98AC-38811F1F7057}"/>
+    <hyperlink ref="F127" r:id="rId126" xr:uid="{CCE2EB7C-41A2-46D9-A235-1795FDD6CC6B}"/>
+    <hyperlink ref="F128" r:id="rId127" xr:uid="{A2B9B623-EB5D-41DA-A711-2C41E895DB48}"/>
+    <hyperlink ref="F129" r:id="rId128" xr:uid="{B582EDDD-5CB9-475B-A0EC-9A4BA1666A1A}"/>
+    <hyperlink ref="F130" r:id="rId129" xr:uid="{60BCA634-C88E-4001-92B2-8ECF74307296}"/>
+    <hyperlink ref="F131" r:id="rId130" xr:uid="{625A2B97-EB9A-4D1E-88A6-A510052D1757}"/>
+    <hyperlink ref="F132" r:id="rId131" xr:uid="{E8758625-2C6D-4A17-9FE0-2DA8C2302301}"/>
+    <hyperlink ref="F133" r:id="rId132" xr:uid="{5E828627-FFB7-4D5C-92E0-4EEE36EBEF8B}"/>
+    <hyperlink ref="F134" r:id="rId133" xr:uid="{AD6E0818-0B15-43F7-945D-AEB4EBD77B13}"/>
+    <hyperlink ref="F135" r:id="rId134" xr:uid="{10D5B08B-6C18-465E-86B3-DEBD79D57CD8}"/>
+    <hyperlink ref="F136" r:id="rId135" xr:uid="{F0EE0062-2804-4ABB-A193-7296F4CD9290}"/>
+    <hyperlink ref="F137" r:id="rId136" xr:uid="{E2723E93-EA59-4FD5-B667-661195984F09}"/>
+    <hyperlink ref="F138" r:id="rId137" xr:uid="{CB403BDD-BE89-4D1C-A117-CD0797C62CD9}"/>
+    <hyperlink ref="F139" r:id="rId138" xr:uid="{12321E69-6040-4F68-B64F-77C6F20E24CA}"/>
+    <hyperlink ref="F140" r:id="rId139" xr:uid="{4CBCB5B3-D3CE-43BB-911D-4C5A647B7D63}"/>
+    <hyperlink ref="F141" r:id="rId140" xr:uid="{C3730D04-B4F3-4FD1-9817-A09BED7D4110}"/>
+    <hyperlink ref="F143" r:id="rId141" xr:uid="{F9F7330A-ADE5-4E6C-A2C2-33745687D53F}"/>
+    <hyperlink ref="F142" r:id="rId142" xr:uid="{3EE28015-F7FA-4B6F-90C1-A38A4E107F68}"/>
+    <hyperlink ref="F144" r:id="rId143" xr:uid="{5833DE31-671C-4820-B235-4BB27B06797C}"/>
+    <hyperlink ref="F145" r:id="rId144" xr:uid="{97565C06-4735-4E5B-917A-543C3404024A}"/>
+    <hyperlink ref="F146" r:id="rId145" xr:uid="{C14D1A83-03E0-4929-AED4-E6AF692A1560}"/>
+    <hyperlink ref="F147" r:id="rId146" xr:uid="{C89AF3EB-1908-4CEE-99B3-6F284F98EB69}"/>
+    <hyperlink ref="F148" r:id="rId147" xr:uid="{39E8C3CD-FD50-4B7F-B364-4A2534DE037D}"/>
+    <hyperlink ref="F149" r:id="rId148" xr:uid="{2DA72AF2-7001-41BF-BE33-DE9D1ED153FA}"/>
+    <hyperlink ref="F150" r:id="rId149" xr:uid="{6320810A-CFDF-4010-8BC9-1568327B7D99}"/>
+    <hyperlink ref="F151" r:id="rId150" xr:uid="{80D7E84E-271E-4963-905A-DFB4CAE16986}"/>
+    <hyperlink ref="F152" r:id="rId151" xr:uid="{A84F62B9-A951-464C-89E2-92A339DF0B73}"/>
+    <hyperlink ref="F153" r:id="rId152" xr:uid="{AEFE8381-1CA5-4B80-B7F0-2FFE20A05B10}"/>
+    <hyperlink ref="F154" r:id="rId153" xr:uid="{13309947-E8E5-4986-9D60-AECD7F5D41F3}"/>
+    <hyperlink ref="F155" r:id="rId154" xr:uid="{EA146508-0F53-44C8-A5CA-2BA1CC055E27}"/>
+    <hyperlink ref="F156" r:id="rId155" xr:uid="{BE3EC09C-56D3-4E61-8793-89763372704A}"/>
+    <hyperlink ref="F157" r:id="rId156" xr:uid="{1D1DC132-4505-4AC4-B51C-6B077FC36852}"/>
+    <hyperlink ref="F158" r:id="rId157" xr:uid="{94AC6082-F197-44F8-9C32-9EFBD0A46D77}"/>
+    <hyperlink ref="F159" r:id="rId158" xr:uid="{EF8CCCF0-50A3-433D-A064-D1867645192A}"/>
+    <hyperlink ref="F160" r:id="rId159" xr:uid="{11353669-DCF0-4B4D-BB44-64595FEE2A9E}"/>
+    <hyperlink ref="F161" r:id="rId160" xr:uid="{DDE9BED5-1E0F-4CE7-A0D1-5C0197108C69}"/>
+    <hyperlink ref="F162" r:id="rId161" xr:uid="{1A733BC8-EE2A-473A-AAEA-942894FE59A2}"/>
+    <hyperlink ref="F163" r:id="rId162" xr:uid="{B2E87D8D-A356-4C4B-9676-FEECAAF283A1}"/>
+    <hyperlink ref="F164" r:id="rId163" xr:uid="{61815E11-CAA5-4A5F-9A42-9AFA1BA308C8}"/>
+    <hyperlink ref="F165" r:id="rId164" xr:uid="{1F7B5A1C-69DB-4B9C-9682-E85FE32E7124}"/>
+    <hyperlink ref="F177" r:id="rId165" xr:uid="{D42F3955-94D6-4097-A36F-F5F0CB7E307A}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
